--- a/data/traductions-autres.xlsx
+++ b/data/traductions-autres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37EBAC-A83E-40E6-A7F9-2C798E4FAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A40EC6-E021-4DBD-811E-F5BD18029B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B8A26C1F-DC42-4D1A-9C75-C2741A47C12A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">translation_en!$A$1:$B$40</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">translation_en!$A$1:$B$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>fr</t>
   </si>
@@ -268,16 +268,36 @@
   </si>
   <si>
     <t>default parameters</t>
+  </si>
+  <si>
+    <t>https://twitter.com/intent/tweet?text=Regardez%20cette%20simulation%20ofce.shinyapps.io/debtwatchr</t>
+  </si>
+  <si>
+    <t>https://twitter.com/intent/tweet?text=Watch%20out%20this%20simulation%20ofce.shinyapps.io/debtwatchr</t>
+  </si>
+  <si>
+    <t>Echec de la simulation</t>
+  </si>
+  <si>
+    <t>Simulation failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,14 +320,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -342,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}" name="translation_en" displayName="translation_en" ref="A1:B40" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B40" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}" name="translation_en" displayName="translation_en" ref="A1:B42" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B42" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -652,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F5212B-96CF-4832-88B3-822EBF9D40D5}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="A40:B40"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,10 +1007,30 @@
         <v>73</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A41" r:id="rId1" xr:uid="{BBA809B8-B5FB-4F6D-A791-809BAA4FAA02}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{DB82A8DF-0457-40A4-B1E9-8EFD1FDC6D10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/traductions-autres.xlsx
+++ b/data/traductions-autres.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A40EC6-E021-4DBD-811E-F5BD18029B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37165303-67F7-4391-821F-5A40C9BC6059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B8A26C1F-DC42-4D1A-9C75-C2741A47C12A}"/>
+    <workbookView xWindow="3180" yWindow="720" windowWidth="13670" windowHeight="20160" xr2:uid="{B8A26C1F-DC42-4D1A-9C75-C2741A47C12A}"/>
   </bookViews>
   <sheets>
     <sheet name="translation_en" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">translation_en!$A$1:$B$42</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">translation_en!$A$1:$B$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>fr</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Simulation failed</t>
+  </si>
+  <si>
+    <t>Calage DP/DIB</t>
+  </si>
+  <si>
+    <t>Tax/spending fine tuning</t>
   </si>
 </sst>
 </file>
@@ -365,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}" name="translation_en" displayName="translation_en" ref="A1:B42" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B42" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}" name="translation_en" displayName="translation_en" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B43" xr:uid="{E00C9D65-2699-49EA-A8F2-0B5EB0011332}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -675,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F5212B-96CF-4832-88B3-822EBF9D40D5}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,6 +1027,14 @@
       </c>
       <c r="B42" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
